--- a/胴メイン.xlsx
+++ b/胴メイン.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffe\Desktop\スタレ用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4481A9DF-0625-4D94-8AC8-42C2C863C0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C94BC2-A6FB-41FC-853D-E70EEA1E6823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12690" yWindow="0" windowWidth="13020" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>HP%</t>
   </si>
@@ -536,13 +536,16 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
@@ -606,6 +609,9 @@
       <c r="E6" t="s">
         <v>46</v>
       </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -619,9 +625,6 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
@@ -638,6 +641,9 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -810,7 +816,7 @@
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -821,9 +827,6 @@
       <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -883,9 +886,6 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
       </c>
       <c r="H40" t="s">
         <v>46</v>
